--- a/medicine/Mort/Décès_en_1909/Décès_en_1909.xlsx
+++ b/medicine/Mort/Décès_en_1909/Décès_en_1909.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1909</t>
+          <t>Décès_en_1909</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -509,7 +521,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1909</t>
+          <t>Décès_en_1909</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,7 +539,9 @@
           <t>Janvier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1er janvier : Nikolaï Karazine, homme de lettres et peintre russe (° 9 décembre 1842).
 3 janvier : Joseph Trévoux, peintre français (° 26 janvier 1831).
@@ -548,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1909</t>
+          <t>Décès_en_1909</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -566,7 +580,9 @@
           <t>Février</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>7 février : Catulle Mendès, écrivain français (° 22 mai 1841).
 8 février : Mieczysław Karłowicz, compositeur polonais (° 11 décembre 1876).
@@ -586,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1909</t>
+          <t>Décès_en_1909</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -604,7 +620,9 @@
           <t>Mars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2 mars : Henriëtte Ronner-Knip, peintre belgo-néerlandaise (° 31 mai 1821).
 4 mars : Alexandre Charpentier, sculpteur, médailleur, ébéniste et peintre français (° 10 juin 1856).
@@ -622,7 +640,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1909</t>
+          <t>Décès_en_1909</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -640,7 +658,9 @@
           <t>Avril</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>3 avril : Louis Le Poittevin, peintre français (° 23 mai 1847).
 7 avril : Henri Zuber, peintre paysagiste français (° 24 juin 1844).
@@ -657,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1909</t>
+          <t>Décès_en_1909</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,7 +695,9 @@
           <t>Mai</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>7 mai : Joachim Andersen, chef d'orchestre et compositeur danois (° 29 avril 1847).
 10 mai : Félix-Henri Giacomotti, peintre français d'origine italienne (° 19 novembre 1828).
@@ -693,7 +715,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1909</t>
+          <t>Décès_en_1909</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -711,7 +733,9 @@
           <t>Juin</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1er juin :
 Alfred Casile, peintre français (° 9 février 1848).
@@ -731,7 +755,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1909</t>
+          <t>Décès_en_1909</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -749,7 +773,9 @@
           <t>Juillet</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>9 juillet : Willy Hamacher, peintre allemand  (° 10 juillet 1865).
 12 juillet : Gustave Jacquet, peintre français (° 25 mai 1846).
@@ -764,7 +790,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1909</t>
+          <t>Décès_en_1909</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -782,7 +808,9 @@
           <t>Août</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>9 août : Ernest Montaut, peintre, affichiste et dessinateur français (° 7 novembre 1878).
 11 août : Cheche (José Marrero Bez), matador mexicain (° 19 mars 1870).
@@ -796,7 +824,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1909</t>
+          <t>Décès_en_1909</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -814,7 +842,9 @@
           <t>Septembre</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>22 septembre : Nikolaï Mourachko, professeur d'art et peintre réaliste russe (° 20 mai 1844).</t>
         </is>
@@ -826,7 +856,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1909</t>
+          <t>Décès_en_1909</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -844,7 +874,9 @@
           <t>Octobre</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>6 octobre : Dudley Buck, compositeur, organiste et écrivain musical américain (° 10 mars 1839).
 7 octobre : Henri Bellery-Desfontaines, peintre français, illustrateur, graveur, lithographe, affichiste, créateur de caractères, architecte et décorateur de la période de l'Art nouveau (° 20 mars 1867).
@@ -864,7 +896,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1909</t>
+          <t>Décès_en_1909</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -882,7 +914,9 @@
           <t>Novembre</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>3 novembre : Albert-Auguste Fauvel, explorateur et naturaliste français (° 7 novembre 1851).
 8 novembre : Charles Bordes, professeur et compositeur français (° 12 mai 1863).
@@ -899,7 +933,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1909</t>
+          <t>Décès_en_1909</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -917,7 +951,9 @@
           <t>Décembre</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>9 décembre : Hermann von Kaulbach, peintre allemand (° 26 juillet 1846).
 10 décembre : Red Cloud, dernier grand chef sioux (° 1822).
@@ -937,7 +973,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1909</t>
+          <t>Décès_en_1909</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -955,7 +991,9 @@
           <t>Date inconnue</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Léonide Bourges, peintre française (° 22 janvier 1838).
 Henri-Joseph Dubouchet, peintre et graveur français (° 28 mars 1833).
